--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="52">
   <si>
     <t>Doi</t>
   </si>
@@ -167,6 +167,27 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,   Amit%Thakrar%NULL%1,   Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,    Sanjit R.%Konda%NULL%1,    Mackenzie L.%Bird%NULL%1,    Nicket%Dedhia%NULL%1,    Emma K.%Landes%NULL%1,    Rachel A.%Ranson%NULL%1,    Sara J.%Solasz%NULL%1,    Vinay K.%Aggarwal%NULL%1,    Joseph A.%Bosco%NULL%1,    David L.%Furgiuele%NULL%1,    Abhishek%Ganta%NULL%1,    Jason%Gould%NULL%1,    Thomas R.%Lyon%NULL%1,    Toni M.%McLaurin%NULL%1,    Nirmal C.%Tejwani%NULL%1,    Joseph D.%Zuckerman%NULL%1,    Philipp%Leucht%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,    Maxwell A.%Konnaris%NULL%1,    Gregory C.%Ghahramani%NULL%1,    Ajay%Premkumar%NULL%1,    Chris J.%DeFrancesco%NULL%1,    Jordan A.%Gruskay%NULL%1,    Aleksey%Dvorzhinskiy%NULL%1,    Milan S.%Sandhu%NULL%1,    Elan M.%Goldwyn%NULL%1,    Christopher L.%Mendias%NULL%1,    William M.%Ricci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,    Karen%Chui%NULL%1,    Akhil%Kapoor%NULL%1,    John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,    Amit%Thakrar%NULL%1,    Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -472,6 +493,9 @@
       <c r="H1" t="s">
         <v>18</v>
       </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -498,6 +522,9 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -513,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -523,6 +550,9 @@
       </c>
       <c r="H3" t="s">
         <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -539,7 +569,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -549,6 +579,9 @@
       </c>
       <c r="H4" t="s">
         <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -575,6 +608,9 @@
       </c>
       <c r="H5" t="s">
         <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -602,6 +638,9 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -617,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -627,6 +666,9 @@
       </c>
       <c r="H7" t="s">
         <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
   <si>
     <t>Doi</t>
   </si>
@@ -188,6 +188,42 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,    Amit%Thakrar%NULL%1,    Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,     Sanjit R.%Konda%NULL%0,     Mackenzie L.%Bird%NULL%0,     Nicket%Dedhia%NULL%0,     Emma K.%Landes%NULL%0,     Rachel A.%Ranson%NULL%0,     Sara J.%Solasz%NULL%0,     Vinay K.%Aggarwal%NULL%0,     Joseph A.%Bosco%NULL%0,     David L.%Furgiuele%NULL%0,     Abhishek%Ganta%NULL%0,     Jason%Gould%NULL%0,     Thomas R.%Lyon%NULL%0,     Toni M.%McLaurin%NULL%0,     Nirmal C.%Tejwani%NULL%0,     Joseph D.%Zuckerman%NULL%0,     Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,     Maxwell A.%Konnaris%NULL%0,     Gregory C.%Ghahramani%NULL%0,     Ajay%Premkumar%NULL%0,     Chris J.%DeFrancesco%NULL%0,     Jordan A.%Gruskay%NULL%0,     Aleksey%Dvorzhinskiy%NULL%0,     Milan S.%Sandhu%NULL%0,     Elan M.%Goldwyn%NULL%0,     Christopher L.%Mendias%NULL%0,     William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,     Karen%Chui%NULL%1,     Akhil%Kapoor%NULL%1,     John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,     Amit%Thakrar%NULL%1,     Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,      Sanjit R.%Konda%NULL%0,      Mackenzie L.%Bird%NULL%0,      Nicket%Dedhia%NULL%0,      Emma K.%Landes%NULL%0,      Rachel A.%Ranson%NULL%0,      Sara J.%Solasz%NULL%0,      Vinay K.%Aggarwal%NULL%0,      Joseph A.%Bosco%NULL%0,      David L.%Furgiuele%NULL%0,      Abhishek%Ganta%NULL%0,      Jason%Gould%NULL%0,      Thomas R.%Lyon%NULL%0,      Toni M.%McLaurin%NULL%0,      Nirmal C.%Tejwani%NULL%0,      Joseph D.%Zuckerman%NULL%0,      Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,      Maxwell A.%Konnaris%NULL%0,      Gregory C.%Ghahramani%NULL%0,      Ajay%Premkumar%NULL%0,      Chris J.%DeFrancesco%NULL%0,      Jordan A.%Gruskay%NULL%0,      Aleksey%Dvorzhinskiy%NULL%0,      Milan S.%Sandhu%NULL%0,      Elan M.%Goldwyn%NULL%0,      Christopher L.%Mendias%NULL%0,      William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,      Karen%Chui%NULL%1,      Akhil%Kapoor%NULL%1,      John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,      Amit%Thakrar%NULL%1,      Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,       Sanjit R.%Konda%NULL%0,       Mackenzie L.%Bird%NULL%0,       Nicket%Dedhia%NULL%0,       Emma K.%Landes%NULL%0,       Rachel A.%Ranson%NULL%0,       Sara J.%Solasz%NULL%0,       Vinay K.%Aggarwal%NULL%0,       Joseph A.%Bosco%NULL%0,       David L.%Furgiuele%NULL%0,       Abhishek%Ganta%NULL%0,       Jason%Gould%NULL%0,       Thomas R.%Lyon%NULL%0,       Toni M.%McLaurin%NULL%0,       Nirmal C.%Tejwani%NULL%0,       Joseph D.%Zuckerman%NULL%0,       Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,       Maxwell A.%Konnaris%NULL%0,       Gregory C.%Ghahramani%NULL%0,       Ajay%Premkumar%NULL%0,       Chris J.%DeFrancesco%NULL%0,       Jordan A.%Gruskay%NULL%0,       Aleksey%Dvorzhinskiy%NULL%0,       Milan S.%Sandhu%NULL%0,       Elan M.%Goldwyn%NULL%0,       Christopher L.%Mendias%NULL%0,       William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,       Karen%Chui%NULL%1,       Akhil%Kapoor%NULL%1,       John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,       Amit%Thakrar%NULL%1,       Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -540,7 +576,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -569,7 +605,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -598,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -656,7 +692,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="82">
   <si>
     <t>Doi</t>
   </si>
@@ -224,6 +224,86 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,       Amit%Thakrar%NULL%1,       Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>"The effects of COVID-19 on perioperative morbidity and mortality in patients with hip fractures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aims During the COVID-19 pandemic, many patients continue to require urgent surgery for hip fractures.
+ However, the impact of COVID-19 on perioperative outcomes in these high-risk patients remains unknown.
+ The objectives of this study were to establish the effects of COVID-19 on perioperative morbidity and mortality, and determine any risk factors for increased mortality in patients with COVID-19 undergoing hip fracture surgery.
+ Methods This multicentre cohort study included 340 COVID-19-negative patients versus 82 COVID-19-positive patients undergoing surgical treatment for hip fractures across nine NHS hospitals in Greater London, UK.
+ Patients in both treatment groups were comparable for age, sex, body mass index, fracture configuration, and type of surgery performed.
+ Predefined perioperative outcomes were recorded within a 30-day postoperative period.
+ Univariate and multivariate analysis were used to identify risk factors associated with increased risk of mortality.
+ Results COVID-19-positive patients had increased postoperative mortality rates (30.5% (25\/82) vs 10.3% (35\/340) respectively, p &amp;lt; 0.001) compared to COVID-19-negative patients.
+ Risk factors for increased mortality in patients with COVID-19 undergoing surgery included positive smoking status (hazard ratio (HR) 15.4 (95% confidence interval (CI) 4.55 to 52.2; p &amp;lt; 0.001) and greater than three comorbidities (HR 13.5 (95% CI 2.82 to 66.0, p &amp;lt; 0.001).
+ COVID-19-positive patients had increased risk of postoperative complications (89.0% (73\/82) vs 35.0% (119\/340) respectively; p &amp;lt; 0.001), more critical care unit admissions (61.0% (50\/82) vs 18.2% (62\/340) respectively; p &amp;lt; 0.001), and increased length of hospital stay (mean 13.8 days (SD 4.6) vs 6.7 days (SD 2.5) respectively; p &amp;lt; 0.001), compared to COVID-19-negative patients.
+ Conclusion Hip fracture surgery in COVID-19-positive patients was associated with increased length of hospital stay, more admissions to the critical care unit, higher risk of perioperative complications, and increased mortality rates compared to COVID-19-negative patients.
+ Risk factors for increased mortality in patients with COVID-19 undergoing surgery included positive smoking status and multiple (greater than three) comorbidities.
+ Cite this article: Bone Joint J 2020;102-B(9):1136\u20131145. </t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0, Elliot%Onochie%xref no email%0, Vijay%Patil%xref no email%0, Fahima%Begum%xref no email%0, Rory%Cuthbert%xref no email%0, David%Ferguson%xref no email%0, Jagmeet S.%Bhamra%xref no email%0, Aadhar%Sharma%xref no email%0, Peter%Bates%xref no email%0, Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,        Sanjit R.%Konda%NULL%0,        Mackenzie L.%Bird%NULL%0,        Nicket%Dedhia%NULL%0,        Emma K.%Landes%NULL%0,        Rachel A.%Ranson%NULL%0,        Sara J.%Solasz%NULL%0,        Vinay K.%Aggarwal%NULL%0,        Joseph A.%Bosco%NULL%0,        David L.%Furgiuele%NULL%0,        Abhishek%Ganta%NULL%0,        Jason%Gould%NULL%0,        Thomas R.%Lyon%NULL%0,        Toni M.%McLaurin%NULL%0,        Nirmal C.%Tejwani%NULL%0,        Joseph D.%Zuckerman%NULL%0,        Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,        Maxwell A.%Konnaris%NULL%0,        Gregory C.%Ghahramani%NULL%0,        Ajay%Premkumar%NULL%0,        Chris J.%DeFrancesco%NULL%0,        Jordan A.%Gruskay%NULL%0,        Aleksey%Dvorzhinskiy%NULL%0,        Milan S.%Sandhu%NULL%0,        Elan M.%Goldwyn%NULL%0,        Christopher L.%Mendias%NULL%0,        William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,        Karen%Chui%NULL%1,        Akhil%Kapoor%NULL%1,        John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>"IMPACT-Scot report on COVID-19 and hip fractures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aims The primary aim was to assess the independent influence of coronavirus disease (COVID-19) on 30-day mortality for patients with a hip fracture.
+ The secondary aims were to determine whether: 1) there were clinical predictors of COVID-19 status; and 2) whether social lockdown influenced the incidence and epidemiology of hip fractures.
+ Methods A national multicentre retrospective study was conducted of all patients presenting to six trauma centres or units with a hip fracture over a 46-day period (23 days pre- and 23 days post-lockdown).
+ Patient demographics, type of residence, place of injury, presentation blood tests, Nottingham Hip Fracture Score, time to surgery, operation, American Society of Anesthesiologists (ASA) grade, anaesthetic, length of stay, COVID-19 status, and 30-day mortality were recorded.
+ Results Of 317 patients with acute hip fracture, 27 (8.5%) had a positive COVID-19 test.
+ Only seven (26%) had suggestive symptoms on admission.
+ COVID-19-positive patients had a significantly lower 30-day survival compared to those without COVID-19 (64.5%, 95% confidence interval (CI) 45.7 to 83.3 vs 91.7%, 95% CI 88.2 to 94.8; p &amp;lt; 0.001).
+ COVID-19 was independently associated with increased 30-day mortality risk adjusting for: 1) age, sex, type of residence (hazard ratio (HR) 2.93; p = 0.008); 2) Nottingham Hip Fracture Score (HR 3.52; p = 0.001); and 3) ASA (HR 3.45; p = 0.004).
+ Presentation platelet count predicted subsequent COVID-19 status; a value of &amp;lt; 217 \u00d7 109\/l was associated with 68% area under the curve (95% CI 58 to 77; p = 0.002) and a sensitivity and specificity of 63%.
+ A similar number of patients presented with hip fracture in the 23 days pre-lockdown (n = 160) and 23 days post-lockdown (n = 157) with no significant (all p \u2265 0.130) difference in patient demographics, residence, place of injury, Nottingham Hip Fracture Score, time to surgery, ASA, or management.
+ Conclusion COVID-19 was independently associated with an increased 30-day mortality rate for patients with a hip fracture.
+ Notably, most patients with hip fracture and COVID-19 lacked suggestive symptoms at presentation.
+ Platelet count was an indicator of risk of COVID-19 infection.
+ These findings have implications for the management of hip fractures, in particular the need for COVID-19 testing.
+ Cite this article: Bone Joint J 2020;102-B(9):1219\u20131228. </t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0, Nicholas D.%Clement%xref no email%0, Luke%Farrow%xref no email%0, Alasdair M. J.%MacLullich%xref no email%0, Graham F.%Dall%xref no email%0, Chloe E. H.%Scott%xref no email%0, Paul J.%Jenkins%xref no email%0, Timothy O.%White%xref no email%0, Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,        Amit%Thakrar%NULL%1,        Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,  Elliot%Onochie%xref no email%0,  Vijay%Patil%xref no email%0,  Fahima%Begum%xref no email%0,  Rory%Cuthbert%xref no email%0,  David%Ferguson%xref no email%0,  Jagmeet S.%Bhamra%xref no email%0,  Aadhar%Sharma%xref no email%0,  Peter%Bates%xref no email%0,  Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,         Sanjit R.%Konda%NULL%0,         Mackenzie L.%Bird%NULL%0,         Nicket%Dedhia%NULL%0,         Emma K.%Landes%NULL%0,         Rachel A.%Ranson%NULL%0,         Sara J.%Solasz%NULL%0,         Vinay K.%Aggarwal%NULL%0,         Joseph A.%Bosco%NULL%0,         David L.%Furgiuele%NULL%0,         Abhishek%Ganta%NULL%0,         Jason%Gould%NULL%0,         Thomas R.%Lyon%NULL%0,         Toni M.%McLaurin%NULL%0,         Nirmal C.%Tejwani%NULL%0,         Joseph D.%Zuckerman%NULL%0,         Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,         Maxwell A.%Konnaris%NULL%0,         Gregory C.%Ghahramani%NULL%0,         Ajay%Premkumar%NULL%0,         Chris J.%DeFrancesco%NULL%0,         Jordan A.%Gruskay%NULL%0,         Aleksey%Dvorzhinskiy%NULL%0,         Milan S.%Sandhu%NULL%0,         Elan M.%Goldwyn%NULL%0,         Christopher L.%Mendias%NULL%0,         William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,         Karen%Chui%NULL%1,         Akhil%Kapoor%NULL%1,         John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,  Nicholas D.%Clement%xref no email%0,  Luke%Farrow%xref no email%0,  Alasdair M. J.%MacLullich%xref no email%0,  Graham F.%Dall%xref no email%0,  Chloe E. H.%Scott%xref no email%0,  Paul J.%Jenkins%xref no email%0,  Timothy O.%White%xref no email%0,  Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,         Amit%Thakrar%NULL%1,         Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -541,22 +621,22 @@
         <v>44075.0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -576,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -605,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -634,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -657,22 +737,22 @@
         <v>44075.0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -692,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="94">
   <si>
     <t>Doi</t>
   </si>
@@ -304,6 +304,42 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,         Amit%Thakrar%NULL%1,         Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,   Elliot%Onochie%xref no email%0,   Vijay%Patil%xref no email%0,   Fahima%Begum%xref no email%0,   Rory%Cuthbert%xref no email%0,   David%Ferguson%xref no email%0,   Jagmeet S.%Bhamra%xref no email%0,   Aadhar%Sharma%xref no email%0,   Peter%Bates%xref no email%0,   Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,          Sanjit R.%Konda%NULL%0,          Mackenzie L.%Bird%NULL%0,          Nicket%Dedhia%NULL%0,          Emma K.%Landes%NULL%0,          Rachel A.%Ranson%NULL%0,          Sara J.%Solasz%NULL%0,          Vinay K.%Aggarwal%NULL%0,          Joseph A.%Bosco%NULL%0,          David L.%Furgiuele%NULL%0,          Abhishek%Ganta%NULL%0,          Jason%Gould%NULL%0,          Thomas R.%Lyon%NULL%0,          Toni M.%McLaurin%NULL%0,          Nirmal C.%Tejwani%NULL%0,          Joseph D.%Zuckerman%NULL%0,          Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,          Maxwell A.%Konnaris%NULL%0,          Gregory C.%Ghahramani%NULL%0,          Ajay%Premkumar%NULL%0,          Chris J.%DeFrancesco%NULL%0,          Jordan A.%Gruskay%NULL%0,          Aleksey%Dvorzhinskiy%NULL%0,          Milan S.%Sandhu%NULL%0,          Elan M.%Goldwyn%NULL%0,          Christopher L.%Mendias%NULL%0,          William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,          Karen%Chui%NULL%1,          Akhil%Kapoor%NULL%1,          John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,   Nicholas D.%Clement%xref no email%0,   Luke%Farrow%xref no email%0,   Alasdair M. J.%MacLullich%xref no email%0,   Graham F.%Dall%xref no email%0,   Chloe E. H.%Scott%xref no email%0,   Paul J.%Jenkins%xref no email%0,   Timothy O.%White%xref no email%0,   Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,          Amit%Thakrar%NULL%1,          Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,    Elliot%Onochie%xref no email%0,    Vijay%Patil%xref no email%0,    Fahima%Begum%xref no email%0,    Rory%Cuthbert%xref no email%0,    David%Ferguson%xref no email%0,    Jagmeet S.%Bhamra%xref no email%0,    Aadhar%Sharma%xref no email%0,    Peter%Bates%xref no email%0,    Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,           Sanjit R.%Konda%NULL%0,           Mackenzie L.%Bird%NULL%0,           Nicket%Dedhia%NULL%0,           Emma K.%Landes%NULL%0,           Rachel A.%Ranson%NULL%0,           Sara J.%Solasz%NULL%0,           Vinay K.%Aggarwal%NULL%0,           Joseph A.%Bosco%NULL%0,           David L.%Furgiuele%NULL%0,           Abhishek%Ganta%NULL%0,           Jason%Gould%NULL%0,           Thomas R.%Lyon%NULL%0,           Toni M.%McLaurin%NULL%0,           Nirmal C.%Tejwani%NULL%0,           Joseph D.%Zuckerman%NULL%0,           Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,           Maxwell A.%Konnaris%NULL%0,           Gregory C.%Ghahramani%NULL%0,           Ajay%Premkumar%NULL%0,           Chris J.%DeFrancesco%NULL%0,           Jordan A.%Gruskay%NULL%0,           Aleksey%Dvorzhinskiy%NULL%0,           Milan S.%Sandhu%NULL%0,           Elan M.%Goldwyn%NULL%0,           Christopher L.%Mendias%NULL%0,           William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,           Karen%Chui%NULL%1,           Akhil%Kapoor%NULL%1,           John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,    Nicholas D.%Clement%xref no email%0,    Luke%Farrow%xref no email%0,    Alasdair M. J.%MacLullich%xref no email%0,    Graham F.%Dall%xref no email%0,    Chloe E. H.%Scott%xref no email%0,    Paul J.%Jenkins%xref no email%0,    Timothy O.%White%xref no email%0,    Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,           Amit%Thakrar%NULL%1,           Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -627,7 +663,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -656,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -685,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -714,7 +750,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -743,7 +779,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -772,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="106">
   <si>
     <t>Doi</t>
   </si>
@@ -340,6 +340,42 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,           Amit%Thakrar%NULL%1,           Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,     Elliot%Onochie%xref no email%0,     Vijay%Patil%xref no email%0,     Fahima%Begum%xref no email%0,     Rory%Cuthbert%xref no email%0,     David%Ferguson%xref no email%0,     Jagmeet S.%Bhamra%xref no email%0,     Aadhar%Sharma%xref no email%0,     Peter%Bates%xref no email%0,     Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,            Sanjit R.%Konda%NULL%0,            Mackenzie L.%Bird%NULL%0,            Nicket%Dedhia%NULL%0,            Emma K.%Landes%NULL%0,            Rachel A.%Ranson%NULL%0,            Sara J.%Solasz%NULL%0,            Vinay K.%Aggarwal%NULL%0,            Joseph A.%Bosco%NULL%0,            David L.%Furgiuele%NULL%0,            Abhishek%Ganta%NULL%0,            Jason%Gould%NULL%0,            Thomas R.%Lyon%NULL%0,            Toni M.%McLaurin%NULL%0,            Nirmal C.%Tejwani%NULL%0,            Joseph D.%Zuckerman%NULL%0,            Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,            Maxwell A.%Konnaris%NULL%0,            Gregory C.%Ghahramani%NULL%0,            Ajay%Premkumar%NULL%0,            Chris J.%DeFrancesco%NULL%0,            Jordan A.%Gruskay%NULL%0,            Aleksey%Dvorzhinskiy%NULL%0,            Milan S.%Sandhu%NULL%0,            Elan M.%Goldwyn%NULL%0,            Christopher L.%Mendias%NULL%0,            William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,            Karen%Chui%NULL%1,            Akhil%Kapoor%NULL%1,            John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,     Nicholas D.%Clement%xref no email%0,     Luke%Farrow%xref no email%0,     Alasdair M. J.%MacLullich%xref no email%0,     Graham F.%Dall%xref no email%0,     Chloe E. H.%Scott%xref no email%0,     Paul J.%Jenkins%xref no email%0,     Timothy O.%White%xref no email%0,     Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,            Amit%Thakrar%NULL%1,            Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,      Elliot%Onochie%xref no email%0,      Vijay%Patil%xref no email%0,      Fahima%Begum%xref no email%0,      Rory%Cuthbert%xref no email%0,      David%Ferguson%xref no email%0,      Jagmeet S.%Bhamra%xref no email%0,      Aadhar%Sharma%xref no email%0,      Peter%Bates%xref no email%0,      Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,             Sanjit R.%Konda%NULL%0,             Mackenzie L.%Bird%NULL%0,             Nicket%Dedhia%NULL%0,             Emma K.%Landes%NULL%0,             Rachel A.%Ranson%NULL%0,             Sara J.%Solasz%NULL%0,             Vinay K.%Aggarwal%NULL%0,             Joseph A.%Bosco%NULL%0,             David L.%Furgiuele%NULL%0,             Abhishek%Ganta%NULL%0,             Jason%Gould%NULL%0,             Thomas R.%Lyon%NULL%0,             Toni M.%McLaurin%NULL%0,             Nirmal C.%Tejwani%NULL%0,             Joseph D.%Zuckerman%NULL%0,             Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,             Maxwell A.%Konnaris%NULL%0,             Gregory C.%Ghahramani%NULL%0,             Ajay%Premkumar%NULL%0,             Chris J.%DeFrancesco%NULL%0,             Jordan A.%Gruskay%NULL%0,             Aleksey%Dvorzhinskiy%NULL%0,             Milan S.%Sandhu%NULL%0,             Elan M.%Goldwyn%NULL%0,             Christopher L.%Mendias%NULL%0,             William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,             Karen%Chui%NULL%1,             Akhil%Kapoor%NULL%1,             John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,      Nicholas D.%Clement%xref no email%0,      Luke%Farrow%xref no email%0,      Alasdair M. J.%MacLullich%xref no email%0,      Graham F.%Dall%xref no email%0,      Chloe E. H.%Scott%xref no email%0,      Paul J.%Jenkins%xref no email%0,      Timothy O.%White%xref no email%0,      Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,             Amit%Thakrar%NULL%1,             Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -663,7 +699,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -692,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -721,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -750,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -779,7 +815,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -808,7 +844,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="112">
   <si>
     <t>Doi</t>
   </si>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,             Amit%Thakrar%NULL%1,             Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,       Elliot%Onochie%xref no email%0,       Vijay%Patil%xref no email%0,       Fahima%Begum%xref no email%0,       Rory%Cuthbert%xref no email%0,       David%Ferguson%xref no email%0,       Jagmeet S.%Bhamra%xref no email%0,       Aadhar%Sharma%xref no email%0,       Peter%Bates%xref no email%0,       Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,              Sanjit R.%Konda%NULL%0,              Mackenzie L.%Bird%NULL%0,              Nicket%Dedhia%NULL%0,              Emma K.%Landes%NULL%0,              Rachel A.%Ranson%NULL%0,              Sara J.%Solasz%NULL%0,              Vinay K.%Aggarwal%NULL%0,              Joseph A.%Bosco%NULL%0,              David L.%Furgiuele%NULL%0,              Abhishek%Ganta%NULL%0,              Jason%Gould%NULL%0,              Thomas R.%Lyon%NULL%0,              Toni M.%McLaurin%NULL%0,              Nirmal C.%Tejwani%NULL%0,              Joseph D.%Zuckerman%NULL%0,              Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,              Maxwell A.%Konnaris%NULL%0,              Gregory C.%Ghahramani%NULL%0,              Ajay%Premkumar%NULL%0,              Chris J.%DeFrancesco%NULL%0,              Jordan A.%Gruskay%NULL%0,              Aleksey%Dvorzhinskiy%NULL%0,              Milan S.%Sandhu%NULL%0,              Elan M.%Goldwyn%NULL%0,              Christopher L.%Mendias%NULL%0,              William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,              Karen%Chui%NULL%1,              Akhil%Kapoor%NULL%1,              John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,       Nicholas D.%Clement%xref no email%0,       Luke%Farrow%xref no email%0,       Alasdair M. J.%MacLullich%xref no email%0,       Graham F.%Dall%xref no email%0,       Chloe E. H.%Scott%xref no email%0,       Paul J.%Jenkins%xref no email%0,       Timothy O.%White%xref no email%0,       Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,              Amit%Thakrar%NULL%1,              Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -699,7 +717,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -728,7 +746,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -757,7 +775,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -786,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -815,7 +833,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -844,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="118">
   <si>
     <t>Doi</t>
   </si>
@@ -394,6 +394,24 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,              Amit%Thakrar%NULL%1,              Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,        Elliot%Onochie%xref no email%0,        Vijay%Patil%xref no email%0,        Fahima%Begum%xref no email%0,        Rory%Cuthbert%xref no email%0,        David%Ferguson%xref no email%0,        Jagmeet S.%Bhamra%xref no email%0,        Aadhar%Sharma%xref no email%0,        Peter%Bates%xref no email%0,        Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,               Sanjit R.%Konda%NULL%0,               Mackenzie L.%Bird%NULL%0,               Nicket%Dedhia%NULL%0,               Emma K.%Landes%NULL%0,               Rachel A.%Ranson%NULL%0,               Sara J.%Solasz%NULL%0,               Vinay K.%Aggarwal%NULL%0,               Joseph A.%Bosco%NULL%0,               David L.%Furgiuele%NULL%0,               Abhishek%Ganta%NULL%0,               Jason%Gould%NULL%0,               Thomas R.%Lyon%NULL%0,               Toni M.%McLaurin%NULL%0,               Nirmal C.%Tejwani%NULL%0,               Joseph D.%Zuckerman%NULL%0,               Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,               Maxwell A.%Konnaris%NULL%0,               Gregory C.%Ghahramani%NULL%0,               Ajay%Premkumar%NULL%0,               Chris J.%DeFrancesco%NULL%0,               Jordan A.%Gruskay%NULL%0,               Aleksey%Dvorzhinskiy%NULL%0,               Milan S.%Sandhu%NULL%0,               Elan M.%Goldwyn%NULL%0,               Christopher L.%Mendias%NULL%0,               William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,               Karen%Chui%NULL%1,               Akhil%Kapoor%NULL%1,               John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,        Nicholas D.%Clement%xref no email%0,        Luke%Farrow%xref no email%0,        Alasdair M. J.%MacLullich%xref no email%0,        Graham F.%Dall%xref no email%0,        Chloe E. H.%Scott%xref no email%0,        Paul J.%Jenkins%xref no email%0,        Timothy O.%White%xref no email%0,        Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,               Amit%Thakrar%NULL%1,               Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -717,7 +735,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -746,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -775,7 +793,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -804,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -833,7 +851,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -862,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="130">
   <si>
     <t>Doi</t>
   </si>
@@ -412,6 +412,42 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,               Amit%Thakrar%NULL%1,               Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,         Elliot%Onochie%xref no email%0,         Vijay%Patil%xref no email%0,         Fahima%Begum%xref no email%0,         Rory%Cuthbert%xref no email%0,         David%Ferguson%xref no email%0,         Jagmeet S.%Bhamra%xref no email%0,         Aadhar%Sharma%xref no email%0,         Peter%Bates%xref no email%0,         Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                Sanjit R.%Konda%NULL%0,                Mackenzie L.%Bird%NULL%0,                Nicket%Dedhia%NULL%0,                Emma K.%Landes%NULL%0,                Rachel A.%Ranson%NULL%0,                Sara J.%Solasz%NULL%0,                Vinay K.%Aggarwal%NULL%0,                Joseph A.%Bosco%NULL%0,                David L.%Furgiuele%NULL%0,                Abhishek%Ganta%NULL%0,                Jason%Gould%NULL%0,                Thomas R.%Lyon%NULL%0,                Toni M.%McLaurin%NULL%0,                Nirmal C.%Tejwani%NULL%0,                Joseph D.%Zuckerman%NULL%0,                Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                Maxwell A.%Konnaris%NULL%0,                Gregory C.%Ghahramani%NULL%0,                Ajay%Premkumar%NULL%0,                Chris J.%DeFrancesco%NULL%0,                Jordan A.%Gruskay%NULL%0,                Aleksey%Dvorzhinskiy%NULL%0,                Milan S.%Sandhu%NULL%0,                Elan M.%Goldwyn%NULL%0,                Christopher L.%Mendias%NULL%0,                William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                Karen%Chui%NULL%1,                Akhil%Kapoor%NULL%1,                John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,         Nicholas D.%Clement%xref no email%0,         Luke%Farrow%xref no email%0,         Alasdair M. J.%MacLullich%xref no email%0,         Graham F.%Dall%xref no email%0,         Chloe E. H.%Scott%xref no email%0,         Paul J.%Jenkins%xref no email%0,         Timothy O.%White%xref no email%0,         Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                Amit%Thakrar%NULL%1,                Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,          Elliot%Onochie%xref no email%0,          Vijay%Patil%xref no email%0,          Fahima%Begum%xref no email%0,          Rory%Cuthbert%xref no email%0,          David%Ferguson%xref no email%0,          Jagmeet S.%Bhamra%xref no email%0,          Aadhar%Sharma%xref no email%0,          Peter%Bates%xref no email%0,          Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                 Sanjit R.%Konda%NULL%0,                 Mackenzie L.%Bird%NULL%0,                 Nicket%Dedhia%NULL%0,                 Emma K.%Landes%NULL%0,                 Rachel A.%Ranson%NULL%0,                 Sara J.%Solasz%NULL%0,                 Vinay K.%Aggarwal%NULL%0,                 Joseph A.%Bosco%NULL%0,                 David L.%Furgiuele%NULL%0,                 Abhishek%Ganta%NULL%0,                 Jason%Gould%NULL%0,                 Thomas R.%Lyon%NULL%0,                 Toni M.%McLaurin%NULL%0,                 Nirmal C.%Tejwani%NULL%0,                 Joseph D.%Zuckerman%NULL%0,                 Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                 Maxwell A.%Konnaris%NULL%0,                 Gregory C.%Ghahramani%NULL%0,                 Ajay%Premkumar%NULL%0,                 Chris J.%DeFrancesco%NULL%0,                 Jordan A.%Gruskay%NULL%0,                 Aleksey%Dvorzhinskiy%NULL%0,                 Milan S.%Sandhu%NULL%0,                 Elan M.%Goldwyn%NULL%0,                 Christopher L.%Mendias%NULL%0,                 William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                 Karen%Chui%NULL%1,                 Akhil%Kapoor%NULL%1,                 John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,          Nicholas D.%Clement%xref no email%0,          Luke%Farrow%xref no email%0,          Alasdair M. J.%MacLullich%xref no email%0,          Graham F.%Dall%xref no email%0,          Chloe E. H.%Scott%xref no email%0,          Paul J.%Jenkins%xref no email%0,          Timothy O.%White%xref no email%0,          Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                 Amit%Thakrar%NULL%1,                 Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -735,7 +771,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -764,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -793,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -822,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -851,7 +887,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -880,7 +916,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="136">
   <si>
     <t>Doi</t>
   </si>
@@ -448,6 +448,24 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                 Amit%Thakrar%NULL%1,                 Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,           Elliot%Onochie%xref no email%0,           Vijay%Patil%xref no email%0,           Fahima%Begum%xref no email%0,           Rory%Cuthbert%xref no email%0,           David%Ferguson%xref no email%0,           Jagmeet S.%Bhamra%xref no email%0,           Aadhar%Sharma%xref no email%0,           Peter%Bates%xref no email%0,           Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                  Sanjit R.%Konda%NULL%0,                  Mackenzie L.%Bird%NULL%0,                  Nicket%Dedhia%NULL%0,                  Emma K.%Landes%NULL%0,                  Rachel A.%Ranson%NULL%0,                  Sara J.%Solasz%NULL%0,                  Vinay K.%Aggarwal%NULL%0,                  Joseph A.%Bosco%NULL%0,                  David L.%Furgiuele%NULL%0,                  Abhishek%Ganta%NULL%0,                  Jason%Gould%NULL%0,                  Thomas R.%Lyon%NULL%0,                  Toni M.%McLaurin%NULL%0,                  Nirmal C.%Tejwani%NULL%0,                  Joseph D.%Zuckerman%NULL%0,                  Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                  Maxwell A.%Konnaris%NULL%0,                  Gregory C.%Ghahramani%NULL%0,                  Ajay%Premkumar%NULL%0,                  Chris J.%DeFrancesco%NULL%0,                  Jordan A.%Gruskay%NULL%0,                  Aleksey%Dvorzhinskiy%NULL%0,                  Milan S.%Sandhu%NULL%0,                  Elan M.%Goldwyn%NULL%0,                  Christopher L.%Mendias%NULL%0,                  William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                  Karen%Chui%NULL%1,                  Akhil%Kapoor%NULL%1,                  John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,           Nicholas D.%Clement%xref no email%0,           Luke%Farrow%xref no email%0,           Alasdair M. J.%MacLullich%xref no email%0,           Graham F.%Dall%xref no email%0,           Chloe E. H.%Scott%xref no email%0,           Paul J.%Jenkins%xref no email%0,           Timothy O.%White%xref no email%0,           Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                  Amit%Thakrar%NULL%1,                  Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -771,7 +789,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -800,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -829,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -858,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -887,7 +905,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -916,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="144">
   <si>
     <t>Doi</t>
   </si>
@@ -466,6 +466,30 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                  Amit%Thakrar%NULL%1,                  Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,            Elliot%Onochie%xref no email%0,            Vijay%Patil%xref no email%0,            Fahima%Begum%xref no email%0,            Rory%Cuthbert%xref no email%0,            David%Ferguson%xref no email%0,            Jagmeet S.%Bhamra%xref no email%0,            Aadhar%Sharma%xref no email%0,            Peter%Bates%xref no email%0,            Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                   Sanjit R.%Konda%NULL%0,                   Mackenzie L.%Bird%NULL%0,                   Nicket%Dedhia%NULL%0,                   Emma K.%Landes%NULL%0,                   Rachel A.%Ranson%NULL%0,                   Sara J.%Solasz%NULL%0,                   Vinay K.%Aggarwal%NULL%0,                   Joseph A.%Bosco%NULL%0,                   David L.%Furgiuele%NULL%0,                   Abhishek%Ganta%NULL%0,                   Jason%Gould%NULL%0,                   Thomas R.%Lyon%NULL%0,                   Toni M.%McLaurin%NULL%0,                   Nirmal C.%Tejwani%NULL%0,                   Joseph D.%Zuckerman%NULL%0,                   Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                   Maxwell A.%Konnaris%NULL%0,                   Gregory C.%Ghahramani%NULL%0,                   Ajay%Premkumar%NULL%0,                   Chris J.%DeFrancesco%NULL%0,                   Jordan A.%Gruskay%NULL%0,                   Aleksey%Dvorzhinskiy%NULL%0,                   Milan S.%Sandhu%NULL%0,                   Elan M.%Goldwyn%NULL%0,                   Christopher L.%Mendias%NULL%0,                   William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                   Karen%Chui%NULL%1,                   Akhil%Kapoor%NULL%1,                   John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,            Nicholas D.%Clement%xref no email%0,            Luke%Farrow%xref no email%0,            Alasdair M. J.%MacLullich%xref no email%0,            Graham F.%Dall%xref no email%0,            Chloe E. H.%Scott%xref no email%0,            Paul J.%Jenkins%xref no email%0,            Timothy O.%White%xref no email%0,            Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                   Amit%Thakrar%NULL%1,                   Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -789,7 +813,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -801,7 +825,7 @@
         <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -818,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -830,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -859,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -888,7 +912,7 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -905,7 +929,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -917,7 +941,7 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
@@ -934,7 +958,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -946,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="150">
   <si>
     <t>Doi</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                   Amit%Thakrar%NULL%1,                   Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babar%Kayani%xref no email%0,             Elliot%Onochie%xref no email%0,             Vijay%Patil%xref no email%0,             Fahima%Begum%xref no email%0,             Rory%Cuthbert%xref no email%0,             David%Ferguson%xref no email%0,             Jagmeet S.%Bhamra%xref no email%0,             Aadhar%Sharma%xref no email%0,             Peter%Bates%xref no email%0,             Fares S.%Haddad%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                    Sanjit R.%Konda%NULL%0,                    Mackenzie L.%Bird%NULL%0,                    Nicket%Dedhia%NULL%0,                    Emma K.%Landes%NULL%0,                    Rachel A.%Ranson%NULL%0,                    Sara J.%Solasz%NULL%0,                    Vinay K.%Aggarwal%NULL%0,                    Joseph A.%Bosco%NULL%0,                    David L.%Furgiuele%NULL%0,                    Abhishek%Ganta%NULL%0,                    Jason%Gould%NULL%0,                    Thomas R.%Lyon%NULL%0,                    Toni M.%McLaurin%NULL%0,                    Nirmal C.%Tejwani%NULL%0,                    Joseph D.%Zuckerman%NULL%0,                    Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                    Maxwell A.%Konnaris%NULL%0,                    Gregory C.%Ghahramani%NULL%0,                    Ajay%Premkumar%NULL%0,                    Chris J.%DeFrancesco%NULL%0,                    Jordan A.%Gruskay%NULL%0,                    Aleksey%Dvorzhinskiy%NULL%0,                    Milan S.%Sandhu%NULL%0,                    Elan M.%Goldwyn%NULL%0,                    Christopher L.%Mendias%NULL%0,                    William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                    Karen%Chui%NULL%1,                    Akhil%Kapoor%NULL%1,                    John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew J.%Hall%xref no email%0,             Nicholas D.%Clement%xref no email%0,             Luke%Farrow%xref no email%0,             Alasdair M. J.%MacLullich%xref no email%0,             Graham F.%Dall%xref no email%0,             Chloe E. H.%Scott%xref no email%0,             Paul J.%Jenkins%xref no email%0,             Timothy O.%White%xref no email%0,             Andrew D.%Duckworth%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                    Amit%Thakrar%NULL%1,                    Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -813,7 +831,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -842,7 +860,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -871,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -900,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -929,7 +947,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -958,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -508,6 +508,75 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                    Amit%Thakrar%NULL%1,                    Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>PUBLISHER: British Editorial Society of Bone &amp; Joint Surgery</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                     Sanjit R.%Konda%NULL%0,                     Mackenzie L.%Bird%NULL%0,                     Nicket%Dedhia%NULL%0,                     Emma K.%Landes%NULL%0,                     Rachel A.%Ranson%NULL%0,                     Sara J.%Solasz%NULL%0,                     Vinay K.%Aggarwal%NULL%0,                     Joseph A.%Bosco%NULL%0,                     David L.%Furgiuele%NULL%0,                     Abhishek%Ganta%NULL%0,                     Jason%Gould%NULL%0,                     Thomas R.%Lyon%NULL%0,                     Toni M.%McLaurin%NULL%0,                     Nirmal C.%Tejwani%NULL%0,                     Joseph D.%Zuckerman%NULL%0,                     Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                     Maxwell A.%Konnaris%NULL%0,                     Gregory C.%Ghahramani%NULL%0,                     Ajay%Premkumar%NULL%0,                     Chris J.%DeFrancesco%NULL%0,                     Jordan A.%Gruskay%NULL%0,                     Aleksey%Dvorzhinskiy%NULL%0,                     Milan S.%Sandhu%NULL%0,                     Elan M.%Goldwyn%NULL%0,                     Christopher L.%Mendias%NULL%0,                     William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                     Karen%Chui%NULL%1,                     Akhil%Kapoor%NULL%1,                     John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                     Amit%Thakrar%NULL%1,                     Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                      Sanjit R.%Konda%NULL%0,                      Mackenzie L.%Bird%NULL%0,                      Nicket%Dedhia%NULL%0,                      Emma K.%Landes%NULL%0,                      Rachel A.%Ranson%NULL%0,                      Sara J.%Solasz%NULL%0,                      Vinay K.%Aggarwal%NULL%0,                      Joseph A.%Bosco%NULL%0,                      David L.%Furgiuele%NULL%0,                      Abhishek%Ganta%NULL%0,                      Jason%Gould%NULL%0,                      Thomas R.%Lyon%NULL%0,                      Toni M.%McLaurin%NULL%0,                      Nirmal C.%Tejwani%NULL%0,                      Joseph D.%Zuckerman%NULL%0,                      Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                      Maxwell A.%Konnaris%NULL%0,                      Gregory C.%Ghahramani%NULL%0,                      Ajay%Premkumar%NULL%0,                      Chris J.%DeFrancesco%NULL%0,                      Jordan A.%Gruskay%NULL%0,                      Aleksey%Dvorzhinskiy%NULL%0,                      Milan S.%Sandhu%NULL%0,                      Elan M.%Goldwyn%NULL%0,                      Christopher L.%Mendias%NULL%0,                      William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                      Karen%Chui%NULL%1,                      Akhil%Kapoor%NULL%1,                      John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                      Amit%Thakrar%NULL%1,                      Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                       Sanjit R.%Konda%NULL%0,                       Mackenzie L.%Bird%NULL%0,                       Nicket%Dedhia%NULL%0,                       Emma K.%Landes%NULL%0,                       Rachel A.%Ranson%NULL%0,                       Sara J.%Solasz%NULL%0,                       Vinay K.%Aggarwal%NULL%0,                       Joseph A.%Bosco%NULL%0,                       David L.%Furgiuele%NULL%0,                       Abhishek%Ganta%NULL%0,                       Jason%Gould%NULL%0,                       Thomas R.%Lyon%NULL%0,                       Toni M.%McLaurin%NULL%0,                       Nirmal C.%Tejwani%NULL%0,                       Joseph D.%Zuckerman%NULL%0,                       Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                       Maxwell A.%Konnaris%NULL%0,                       Gregory C.%Ghahramani%NULL%0,                       Ajay%Premkumar%NULL%0,                       Chris J.%DeFrancesco%NULL%0,                       Jordan A.%Gruskay%NULL%0,                       Aleksey%Dvorzhinskiy%NULL%0,                       Milan S.%Sandhu%NULL%0,                       Elan M.%Goldwyn%NULL%0,                       Christopher L.%Mendias%NULL%0,                       William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                       Karen%Chui%NULL%1,                       Akhil%Kapoor%NULL%1,                       John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                       Amit%Thakrar%NULL%1,                       Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                        Sanjit R.%Konda%NULL%0,                        Mackenzie L.%Bird%NULL%0,                        Nicket%Dedhia%NULL%0,                        Emma K.%Landes%NULL%0,                        Rachel A.%Ranson%NULL%0,                        Sara J.%Solasz%NULL%0,                        Vinay K.%Aggarwal%NULL%0,                        Joseph A.%Bosco%NULL%0,                        David L.%Furgiuele%NULL%0,                        Abhishek%Ganta%NULL%0,                        Jason%Gould%NULL%0,                        Thomas R.%Lyon%NULL%0,                        Toni M.%McLaurin%NULL%0,                        Nirmal C.%Tejwani%NULL%0,                        Joseph D.%Zuckerman%NULL%0,                        Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                        Maxwell A.%Konnaris%NULL%0,                        Gregory C.%Ghahramani%NULL%0,                        Ajay%Premkumar%NULL%0,                        Chris J.%DeFrancesco%NULL%0,                        Jordan A.%Gruskay%NULL%0,                        Aleksey%Dvorzhinskiy%NULL%0,                        Milan S.%Sandhu%NULL%0,                        Elan M.%Goldwyn%NULL%0,                        Christopher L.%Mendias%NULL%0,                        William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                        Karen%Chui%NULL%1,                        Akhil%Kapoor%NULL%1,                        John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                        Amit%Thakrar%NULL%1,                        Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                         Sanjit R.%Konda%NULL%0,                         Mackenzie L.%Bird%NULL%0,                         Nicket%Dedhia%NULL%0,                         Emma K.%Landes%NULL%0,                         Rachel A.%Ranson%NULL%0,                         Sara J.%Solasz%NULL%0,                         Vinay K.%Aggarwal%NULL%0,                         Joseph A.%Bosco%NULL%0,                         David L.%Furgiuele%NULL%0,                         Abhishek%Ganta%NULL%0,                         Jason%Gould%NULL%0,                         Thomas R.%Lyon%NULL%0,                         Toni M.%McLaurin%NULL%0,                         Nirmal C.%Tejwani%NULL%0,                         Joseph D.%Zuckerman%NULL%0,                         Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                         Maxwell A.%Konnaris%NULL%0,                         Gregory C.%Ghahramani%NULL%0,                         Ajay%Premkumar%NULL%0,                         Chris J.%DeFrancesco%NULL%0,                         Jordan A.%Gruskay%NULL%0,                         Aleksey%Dvorzhinskiy%NULL%0,                         Milan S.%Sandhu%NULL%0,                         Elan M.%Goldwyn%NULL%0,                         Christopher L.%Mendias%NULL%0,                         William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                         Karen%Chui%NULL%1,                         Akhil%Kapoor%NULL%1,                         John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                         Amit%Thakrar%NULL%1,                         Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -816,6 +885,9 @@
       <c r="I1" t="s">
         <v>45</v>
       </c>
+      <c r="J1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -831,7 +903,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -840,10 +912,13 @@
         <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -860,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -873,6 +948,9 @@
       </c>
       <c r="I3" t="s">
         <v>139</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -889,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -902,6 +980,9 @@
       </c>
       <c r="I4" t="s">
         <v>139</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -918,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -931,6 +1012,9 @@
       </c>
       <c r="I5" t="s">
         <v>139</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +1031,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -956,10 +1040,13 @@
         <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -976,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -989,6 +1076,9 @@
       </c>
       <c r="I7" t="s">
         <v>139</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/94.xlsx
+++ b/Covid_19_Dataset_and_References/References/94.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="181">
   <si>
     <t>Doi</t>
   </si>
@@ -577,6 +577,30 @@
   </si>
   <si>
     <t>[Karen%Chui%NULL%1,                         Amit%Thakrar%NULL%1,                         Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                          Sanjit R.%Konda%NULL%0,                          Mackenzie L.%Bird%NULL%0,                          Nicket%Dedhia%NULL%0,                          Emma K.%Landes%NULL%0,                          Rachel A.%Ranson%NULL%0,                          Sara J.%Solasz%NULL%0,                          Vinay K.%Aggarwal%NULL%0,                          Joseph A.%Bosco%NULL%0,                          David L.%Furgiuele%NULL%0,                          Abhishek%Ganta%NULL%0,                          Jason%Gould%NULL%0,                          Thomas R.%Lyon%NULL%0,                          Toni M.%McLaurin%NULL%0,                          Nirmal C.%Tejwani%NULL%0,                          Joseph D.%Zuckerman%NULL%0,                          Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                          Maxwell A.%Konnaris%NULL%0,                          Gregory C.%Ghahramani%NULL%0,                          Ajay%Premkumar%NULL%0,                          Chris J.%DeFrancesco%NULL%0,                          Jordan A.%Gruskay%NULL%0,                          Aleksey%Dvorzhinskiy%NULL%0,                          Milan S.%Sandhu%NULL%0,                          Elan M.%Goldwyn%NULL%0,                          Christopher L.%Mendias%NULL%0,                          William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                          Karen%Chui%NULL%1,                          Akhil%Kapoor%NULL%1,                          John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                          Amit%Thakrar%NULL%1,                          Shivakumar%Shankar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth A.%Egol%NULL%0,                           Sanjit R.%Konda%NULL%0,                           Mackenzie L.%Bird%NULL%0,                           Nicket%Dedhia%NULL%0,                           Emma K.%Landes%NULL%0,                           Rachel A.%Ranson%NULL%0,                           Sara J.%Solasz%NULL%0,                           Vinay K.%Aggarwal%NULL%0,                           Joseph A.%Bosco%NULL%0,                           David L.%Furgiuele%NULL%0,                           Abhishek%Ganta%NULL%0,                           Jason%Gould%NULL%0,                           Thomas R.%Lyon%NULL%0,                           Toni M.%McLaurin%NULL%0,                           Nirmal C.%Tejwani%NULL%0,                           Joseph D.%Zuckerman%NULL%0,                           Philipp%Leucht%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Drake G.%LeBrun%NULL%0,                           Maxwell A.%Konnaris%NULL%0,                           Gregory C.%Ghahramani%NULL%0,                           Ajay%Premkumar%NULL%0,                           Chris J.%DeFrancesco%NULL%0,                           Jordan A.%Gruskay%NULL%0,                           Aleksey%Dvorzhinskiy%NULL%0,                           Milan S.%Sandhu%NULL%0,                           Elan M.%Goldwyn%NULL%0,                           Christopher L.%Mendias%NULL%0,                           William M.%Ricci%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Amit%Thakrar%NULL%1,                           Karen%Chui%NULL%1,                           Akhil%Kapoor%NULL%1,                           John%Hambidge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karen%Chui%NULL%1,                           Amit%Thakrar%NULL%1,                           Shivakumar%Shankar%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -903,7 +927,7 @@
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -935,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
@@ -967,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -999,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1031,7 +1055,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1063,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
